--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -425,10 +449,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -472,28 +496,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -518,28 +542,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -656,10 +680,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -703,28 +727,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="3">
+      <c r="A20" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -749,28 +773,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="3">
+      <c r="I22" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -945,10 +969,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -992,28 +1016,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="A30" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="C30" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D30" t="s" s="3">
+      <c r="D30" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1038,28 +1062,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="3">
+      <c r="I32" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1176,10 +1200,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1223,28 +1247,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1269,28 +1293,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1378,10 +1402,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1425,28 +1449,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
+      <c r="C45" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="3">
+      <c r="D45" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1471,28 +1495,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1580,10 +1604,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1627,28 +1651,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="3">
+      <c r="A52" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1673,28 +1697,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="3">
+      <c r="D54" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="3">
+      <c r="I54" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1985,10 +2009,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2032,28 +2056,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2078,28 +2102,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2216,10 +2240,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2263,28 +2287,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="A74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2309,28 +2333,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="3">
+      <c r="I76" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2447,10 +2471,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2494,28 +2518,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="A82" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2540,28 +2564,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="3">
+      <c r="I84" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2678,10 +2702,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2725,28 +2749,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="3">
+      <c r="A90" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="3">
+      <c r="C90" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="3">
+      <c r="D90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2771,28 +2795,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="3">
+      <c r="I92" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3054,10 +3078,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3101,28 +3125,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="3">
+      <c r="A103" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3147,28 +3171,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="3">
+      <c r="I105" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3314,10 +3338,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="J110" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="K110" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3361,28 +3385,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="A112" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="3">
+      <c r="C112" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="3">
+      <c r="D112" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3407,28 +3431,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="3">
+      <c r="I114" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3777,10 +3801,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="J126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="K126" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3824,28 +3848,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="3">
+      <c r="A128" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="3">
+      <c r="C128" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="3">
+      <c r="D128" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3870,28 +3894,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="3">
+      <c r="C130" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="3">
+      <c r="D130" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="3">
+      <c r="I130" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4269,10 +4293,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="J143" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="3" t="s">
+      <c r="K143" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4316,28 +4340,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4362,28 +4386,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4558,10 +4582,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="J153" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="3" t="s">
+      <c r="K153" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4605,28 +4629,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="3">
+      <c r="A155" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="3">
+      <c r="B155" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="3">
+      <c r="C155" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="3">
+      <c r="D155" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="3">
+      <c r="F155" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="3">
+      <c r="G155" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="3">
+      <c r="H155" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4651,28 +4675,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="3">
+      <c r="C157" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="3">
+      <c r="D157" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="3">
+      <c r="I157" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4876,10 +4900,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="J164" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="3" t="s">
+      <c r="K164" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4923,28 +4947,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
+      <c r="C166" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="3">
+      <c r="D166" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4969,28 +4993,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5165,10 +5189,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="J174" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K174" s="3" t="s">
+      <c r="K174" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5212,28 +5236,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="3">
+      <c r="A176" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="3">
+      <c r="B176" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="3">
+      <c r="C176" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D176" t="s" s="3">
+      <c r="D176" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="3">
+      <c r="E176" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="3">
+      <c r="F176" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="3">
+      <c r="G176" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="3">
+      <c r="H176" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5258,28 +5282,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="3">
+      <c r="C178" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="3">
+      <c r="D178" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="3">
+      <c r="I178" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5454,10 +5478,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="3" t="s">
+      <c r="J184" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K184" s="3" t="s">
+      <c r="K184" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5501,28 +5525,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="3">
+      <c r="A186" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="3">
+      <c r="C186" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D186" t="s" s="3">
+      <c r="D186" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5547,28 +5571,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="3">
+      <c r="C188" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="3">
+      <c r="D188" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="3">
+      <c r="I188" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5801,10 +5825,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="J196" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="3" t="s">
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
